--- a/biology/Botanique/Veronica_ciliolata/Veronica_ciliolata.xlsx
+++ b/biology/Botanique/Veronica_ciliolata/Veronica_ciliolata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veronica ciliolata est une espèce de plantes dicotylédones de la famille des Plantaginaceae, endémique de Tasmanie.
 Ce sont des plantes herbacées poussant en coussins denses et compacts, de 30 à 40 cm de diamètre et 2 à 4 cm de haut. cette espèce se rencontre uniquement sur une aire réduite du plateau de Ben Lomond, montagne située dans le nord-est de la Tasmanie.
@@ -514,12 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (27 avril 2019)[1]  :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (27 avril 2019)  :
 Chionohebe ciliolata (Hook.f.) B.G.Briggs &amp; Ehrend.
-Pygmea ciliolata Hook.f.
-Liste des sous-espèces et variétés
-Selon Catalogue of Life                                   (27 avril 2019)[2] :
+Pygmea ciliolata Hook.f.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Veronica_ciliolata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veronica_ciliolata</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (27 avril 2019) :
 sous-espèces :
 Veronica ciliolata subsp. ciliolata
 Veronica ciliolata subsp. fiordensis
